--- a/计划/2024鸡丁计划.xlsx
+++ b/计划/2024鸡丁计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640"/>
+    <workbookView windowHeight="23840"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2024.1.14</t>
-  </si>
-  <si>
-    <t>2024.1.15</t>
-  </si>
-  <si>
-    <t>2024.1.16</t>
-  </si>
-  <si>
-    <t>2024.1.17</t>
-  </si>
-  <si>
-    <t>2024.1.18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>2024.3.10</t>
+  </si>
+  <si>
+    <t>2024.3.11</t>
+  </si>
+  <si>
+    <t>2024.3.12</t>
+  </si>
+  <si>
+    <t>2024.3.13</t>
+  </si>
+  <si>
+    <t>2024.3.14</t>
   </si>
   <si>
     <t>作业</t>
@@ -49,36 +49,30 @@
     <t>学习</t>
   </si>
   <si>
+    <t>拼音</t>
+  </si>
+  <si>
     <t>汉字</t>
   </si>
   <si>
-    <t>图形</t>
-  </si>
-  <si>
-    <t>拼音</t>
-  </si>
-  <si>
     <t>数学</t>
   </si>
   <si>
-    <t>1. 一道数学卷子题
-2. 学习一页书
-3. 一套卷子
-4. 2页练字
-5. 10个拼音考核
-6. 英文</t>
+    <t>1. 学习一页书
+2. 一套卷子
+3. 1页练字
+4. 拼音考核
+5. 英文
+6. 乘法表</t>
   </si>
   <si>
     <t>锻炼</t>
   </si>
   <si>
-    <t>跳绳 1000</t>
+    <t>跳绳 700</t>
   </si>
   <si>
     <t>积分</t>
-  </si>
-  <si>
-    <t>☆(7颗小星星了）</t>
   </si>
   <si>
     <t>☆</t>
@@ -1117,7 +1111,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -1155,9 +1149,7 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1175,9 +1167,7 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1195,80 +1185,72 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="117" customHeight="1" spans="1:6">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="44" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="140" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>

--- a/计划/2024鸡丁计划.xlsx
+++ b/计划/2024鸡丁计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23840"/>
+    <workbookView windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="12" sheetId="1" r:id="rId1"/>
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>2024.3.10</t>
-  </si>
-  <si>
-    <t>2024.3.11</t>
-  </si>
-  <si>
-    <t>2024.3.12</t>
-  </si>
-  <si>
-    <t>2024.3.13</t>
-  </si>
-  <si>
-    <t>2024.3.14</t>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>2024.4.7</t>
+  </si>
+  <si>
+    <t>2024.4.8</t>
+  </si>
+  <si>
+    <t>2024.4.9</t>
+  </si>
+  <si>
+    <t>2024.4.10</t>
+  </si>
+  <si>
+    <t>2024.4.11</t>
   </si>
   <si>
     <t>作业</t>
@@ -49,13 +49,13 @@
     <t>学习</t>
   </si>
   <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>汉字</t>
+  </si>
+  <si>
     <t>拼音</t>
-  </si>
-  <si>
-    <t>汉字</t>
-  </si>
-  <si>
-    <t>数学</t>
   </si>
   <si>
     <t>1. 学习一页书
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="5"/>
@@ -1149,10 +1149,10 @@
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1167,10 +1167,10 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1185,15 +1185,15 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="117" customHeight="1" spans="1:6">
@@ -1201,10 +1201,10 @@
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1219,10 +1219,10 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1237,10 +1237,10 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
